--- a/table/DGP5_table.xlsx
+++ b/table/DGP5_table.xlsx
@@ -380,7 +380,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -434,28 +434,28 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.915</v>
+        <v>0.9135</v>
       </c>
       <c r="F2" t="n">
-        <v>0.93</v>
+        <v>0.9285</v>
       </c>
       <c r="G2" t="n">
-        <v>4.17797201825087</v>
+        <v>4.18040248729323</v>
       </c>
       <c r="H2" t="n">
-        <v>3.15896391001334</v>
+        <v>3.17819732273542</v>
       </c>
       <c r="I2" t="n">
-        <v>48.0531815801723</v>
+        <v>48.0116564631139</v>
       </c>
       <c r="J2" t="n">
-        <v>31.4282690766765</v>
+        <v>31.9702477973517</v>
       </c>
       <c r="K2" t="n">
-        <v>26.6297234302532</v>
+        <v>26.719834176232</v>
       </c>
       <c r="L2" t="n">
-        <v>26.1923511495926</v>
+        <v>26.2747794295069</v>
       </c>
     </row>
     <row r="3">
@@ -472,28 +472,28 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.908</v>
+        <v>0.904</v>
       </c>
       <c r="F3" t="n">
         <v>0.9285</v>
       </c>
       <c r="G3" t="n">
-        <v>4.32091115953355</v>
+        <v>4.43016694863286</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2115008433669</v>
+        <v>3.27933472465525</v>
       </c>
       <c r="I3" t="n">
-        <v>51.9495494011023</v>
+        <v>52.1678294778021</v>
       </c>
       <c r="J3" t="n">
-        <v>34.4855633804174</v>
+        <v>34.7611348080356</v>
       </c>
       <c r="K3" t="n">
-        <v>27.0869417352198</v>
+        <v>27.0597810022805</v>
       </c>
       <c r="L3" t="n">
-        <v>26.773434952989</v>
+        <v>26.7146317765972</v>
       </c>
     </row>
     <row r="4">
@@ -510,28 +510,28 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.903</v>
+        <v>0.9065</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9235</v>
+        <v>0.9225</v>
       </c>
       <c r="G4" t="n">
-        <v>4.36703021998228</v>
+        <v>4.4805177556033</v>
       </c>
       <c r="H4" t="n">
-        <v>3.29180194612468</v>
+        <v>3.29225840529249</v>
       </c>
       <c r="I4" t="n">
-        <v>54.4597336191031</v>
+        <v>55.0680267192192</v>
       </c>
       <c r="J4" t="n">
-        <v>36.8714231996334</v>
+        <v>36.9335180347533</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2751268100724</v>
+        <v>27.3476311260602</v>
       </c>
       <c r="L4" t="n">
-        <v>26.7665958744062</v>
+        <v>26.7679481235127</v>
       </c>
     </row>
     <row r="5">
@@ -548,28 +548,28 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9015</v>
+        <v>0.906</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9225</v>
+        <v>0.9235</v>
       </c>
       <c r="G5" t="n">
-        <v>4.63265307089014</v>
+        <v>4.55599798081732</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45089352224451</v>
+        <v>3.41250410502885</v>
       </c>
       <c r="I5" t="n">
-        <v>54.0159625343766</v>
+        <v>53.7960688516785</v>
       </c>
       <c r="J5" t="n">
-        <v>36.1571463501873</v>
+        <v>36.3987854507694</v>
       </c>
       <c r="K5" t="n">
-        <v>27.3120798866991</v>
+        <v>27.361613325306</v>
       </c>
       <c r="L5" t="n">
-        <v>26.9787232105704</v>
+        <v>27.0156438429402</v>
       </c>
     </row>
     <row r="6">
@@ -586,28 +586,28 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8995</v>
+        <v>0.906</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9225</v>
+        <v>0.919</v>
       </c>
       <c r="G6" t="n">
-        <v>4.33610487189448</v>
+        <v>4.3142332058646</v>
       </c>
       <c r="H6" t="n">
-        <v>3.37988896094738</v>
+        <v>3.37393999727367</v>
       </c>
       <c r="I6" t="n">
-        <v>56.1889008315838</v>
+        <v>55.8574872414084</v>
       </c>
       <c r="J6" t="n">
-        <v>38.0908724005936</v>
+        <v>38.2935653978395</v>
       </c>
       <c r="K6" t="n">
-        <v>27.2949455040049</v>
+        <v>27.5582852576208</v>
       </c>
       <c r="L6" t="n">
-        <v>27.0948220691087</v>
+        <v>27.1594363873939</v>
       </c>
     </row>
     <row r="7">
@@ -624,28 +624,28 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.897</v>
+        <v>0.8965</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9175</v>
+        <v>0.916</v>
       </c>
       <c r="G7" t="n">
-        <v>4.69723500978083</v>
+        <v>4.76112338463227</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55581759801513</v>
+        <v>3.52114964168355</v>
       </c>
       <c r="I7" t="n">
-        <v>58.1464732252841</v>
+        <v>57.6065202347101</v>
       </c>
       <c r="J7" t="n">
-        <v>39.0333360891892</v>
+        <v>39.2647682945716</v>
       </c>
       <c r="K7" t="n">
-        <v>27.2409560253616</v>
+        <v>27.3963285436855</v>
       </c>
       <c r="L7" t="n">
-        <v>27.082170279795</v>
+        <v>27.0102687982163</v>
       </c>
     </row>
     <row r="8">
@@ -662,28 +662,28 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9005</v>
+        <v>0.8995</v>
       </c>
       <c r="F8" t="n">
-        <v>0.923</v>
+        <v>0.919</v>
       </c>
       <c r="G8" t="n">
-        <v>4.41272961167043</v>
+        <v>4.48119551155733</v>
       </c>
       <c r="H8" t="n">
-        <v>3.29726279171035</v>
+        <v>3.37695424274748</v>
       </c>
       <c r="I8" t="n">
-        <v>57.1044135871956</v>
+        <v>56.574949582039</v>
       </c>
       <c r="J8" t="n">
-        <v>39.1509555148018</v>
+        <v>39.2226135608547</v>
       </c>
       <c r="K8" t="n">
-        <v>27.6311380366816</v>
+        <v>27.5141087630111</v>
       </c>
       <c r="L8" t="n">
-        <v>27.0690767659359</v>
+        <v>27.2037451451016</v>
       </c>
     </row>
     <row r="9">
@@ -700,28 +700,28 @@
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8965</v>
+        <v>0.891</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9195</v>
+        <v>0.9205</v>
       </c>
       <c r="G9" t="n">
-        <v>4.63940629910232</v>
+        <v>4.62138174209677</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4963216509892</v>
+        <v>3.53152817059388</v>
       </c>
       <c r="I9" t="n">
-        <v>60.7597708843263</v>
+        <v>60.9608233965534</v>
       </c>
       <c r="J9" t="n">
-        <v>42.1354278037998</v>
+        <v>42.5076346977086</v>
       </c>
       <c r="K9" t="n">
-        <v>27.3691324190483</v>
+        <v>27.2420306398878</v>
       </c>
       <c r="L9" t="n">
-        <v>27.12998516412</v>
+        <v>27.0079607031341</v>
       </c>
     </row>
     <row r="10">
@@ -738,28 +738,28 @@
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>0.902</v>
+        <v>0.9</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9235</v>
+        <v>0.9195</v>
       </c>
       <c r="G10" t="n">
-        <v>4.28637276296704</v>
+        <v>4.4015655566488</v>
       </c>
       <c r="H10" t="n">
-        <v>3.30852178857876</v>
+        <v>3.33384473100476</v>
       </c>
       <c r="I10" t="n">
-        <v>58.8631106342767</v>
+        <v>59.1823846171696</v>
       </c>
       <c r="J10" t="n">
-        <v>41.0755209182261</v>
+        <v>41.1996076187998</v>
       </c>
       <c r="K10" t="n">
-        <v>27.5388458411708</v>
+        <v>27.5503450245525</v>
       </c>
       <c r="L10" t="n">
-        <v>27.1942629986905</v>
+        <v>27.1825189985822</v>
       </c>
     </row>
     <row r="11">
@@ -776,28 +776,28 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8995</v>
+        <v>0.896</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9205</v>
+        <v>0.919</v>
       </c>
       <c r="G11" t="n">
-        <v>4.58311437806932</v>
+        <v>4.60468934106563</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3342564237218</v>
+        <v>3.36396908494763</v>
       </c>
       <c r="I11" t="n">
-        <v>59.8720383515963</v>
+        <v>60.4749885628733</v>
       </c>
       <c r="J11" t="n">
-        <v>41.4014611561444</v>
+        <v>41.8913625354602</v>
       </c>
       <c r="K11" t="n">
-        <v>27.7030156706544</v>
+        <v>27.7985646799604</v>
       </c>
       <c r="L11" t="n">
-        <v>27.3074552482321</v>
+        <v>27.4887210467432</v>
       </c>
     </row>
     <row r="12">
@@ -814,28 +814,28 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.946</v>
+        <v>0.9445</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9675</v>
+        <v>0.9685</v>
       </c>
       <c r="G12" t="n">
-        <v>4.05487235865702</v>
+        <v>4.12546064132067</v>
       </c>
       <c r="H12" t="n">
-        <v>2.69544127366244</v>
+        <v>2.72951739862955</v>
       </c>
       <c r="I12" t="n">
-        <v>39.9982026185084</v>
+        <v>40.1934249288406</v>
       </c>
       <c r="J12" t="n">
-        <v>21.2779591145915</v>
+        <v>21.4811242915016</v>
       </c>
       <c r="K12" t="n">
-        <v>26.2168356736919</v>
+        <v>26.2592868407089</v>
       </c>
       <c r="L12" t="n">
-        <v>24.4228983475119</v>
+        <v>24.5625867506697</v>
       </c>
     </row>
     <row r="13">
@@ -852,28 +852,28 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9275</v>
+        <v>0.925</v>
       </c>
       <c r="F13" t="n">
-        <v>0.952</v>
+        <v>0.949</v>
       </c>
       <c r="G13" t="n">
-        <v>4.08674945719679</v>
+        <v>4.13600380972492</v>
       </c>
       <c r="H13" t="n">
-        <v>2.68703759183588</v>
+        <v>2.76322469316615</v>
       </c>
       <c r="I13" t="n">
-        <v>42.5434378280494</v>
+        <v>42.7241346641941</v>
       </c>
       <c r="J13" t="n">
-        <v>23.6344057438631</v>
+        <v>24.0113314900955</v>
       </c>
       <c r="K13" t="n">
-        <v>26.19199199894</v>
+        <v>26.2370851176644</v>
       </c>
       <c r="L13" t="n">
-        <v>24.6109328782373</v>
+        <v>24.5137688877503</v>
       </c>
     </row>
     <row r="14">
@@ -890,28 +890,28 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9295</v>
+        <v>0.9255</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9595</v>
+        <v>0.958</v>
       </c>
       <c r="G14" t="n">
-        <v>4.26367454954683</v>
+        <v>4.35886282734968</v>
       </c>
       <c r="H14" t="n">
-        <v>2.8973115736604</v>
+        <v>2.91725773813448</v>
       </c>
       <c r="I14" t="n">
-        <v>45.127168862162</v>
+        <v>45.213049951541</v>
       </c>
       <c r="J14" t="n">
-        <v>24.6366919989723</v>
+        <v>24.8734286693922</v>
       </c>
       <c r="K14" t="n">
-        <v>26.3036324079345</v>
+        <v>26.3109360450263</v>
       </c>
       <c r="L14" t="n">
-        <v>24.7238106323753</v>
+        <v>24.8108278000036</v>
       </c>
     </row>
     <row r="15">
@@ -928,28 +928,28 @@
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9235</v>
+        <v>0.925</v>
       </c>
       <c r="F15" t="n">
-        <v>0.948</v>
+        <v>0.9505</v>
       </c>
       <c r="G15" t="n">
-        <v>4.34546528516285</v>
+        <v>4.39095507702972</v>
       </c>
       <c r="H15" t="n">
-        <v>2.95354754627471</v>
+        <v>3.00328129152727</v>
       </c>
       <c r="I15" t="n">
-        <v>47.8709000352259</v>
+        <v>48.1909522287023</v>
       </c>
       <c r="J15" t="n">
-        <v>26.7572683119343</v>
+        <v>27.0313824359019</v>
       </c>
       <c r="K15" t="n">
-        <v>26.4393880175646</v>
+        <v>26.3074421994105</v>
       </c>
       <c r="L15" t="n">
-        <v>24.7483914161485</v>
+        <v>24.8370955190862</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +966,28 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9305</v>
+        <v>0.929</v>
       </c>
       <c r="F16" t="n">
-        <v>0.954</v>
+        <v>0.9525</v>
       </c>
       <c r="G16" t="n">
-        <v>4.06176949492398</v>
+        <v>3.9998798442455</v>
       </c>
       <c r="H16" t="n">
-        <v>2.75447776723153</v>
+        <v>2.79795238200716</v>
       </c>
       <c r="I16" t="n">
-        <v>44.3094442879734</v>
+        <v>44.6907721358024</v>
       </c>
       <c r="J16" t="n">
-        <v>24.8823759113658</v>
+        <v>24.9779161476468</v>
       </c>
       <c r="K16" t="n">
-        <v>26.4793468076599</v>
+        <v>26.509769133852</v>
       </c>
       <c r="L16" t="n">
-        <v>24.8697332663029</v>
+        <v>24.9186588824365</v>
       </c>
     </row>
     <row r="17">
@@ -1004,28 +1004,28 @@
         <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9285</v>
+        <v>0.9275</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9565</v>
+        <v>0.954</v>
       </c>
       <c r="G17" t="n">
-        <v>4.15965201265492</v>
+        <v>4.2111621546575</v>
       </c>
       <c r="H17" t="n">
-        <v>2.81114764715427</v>
+        <v>2.82951275594661</v>
       </c>
       <c r="I17" t="n">
-        <v>47.771888712847</v>
+        <v>47.5337188875682</v>
       </c>
       <c r="J17" t="n">
-        <v>26.3020840063223</v>
+        <v>26.3546191195345</v>
       </c>
       <c r="K17" t="n">
-        <v>26.6120521958241</v>
+        <v>26.7195261712145</v>
       </c>
       <c r="L17" t="n">
-        <v>25.0423151584095</v>
+        <v>25.0755049713369</v>
       </c>
     </row>
     <row r="18">
@@ -1042,28 +1042,28 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>0.927</v>
+        <v>0.93</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9625</v>
+        <v>0.96</v>
       </c>
       <c r="G18" t="n">
-        <v>4.3671292447212</v>
+        <v>4.37603513491793</v>
       </c>
       <c r="H18" t="n">
-        <v>2.91925752648262</v>
+        <v>2.92257577680309</v>
       </c>
       <c r="I18" t="n">
-        <v>49.8087513977978</v>
+        <v>49.8270444840151</v>
       </c>
       <c r="J18" t="n">
-        <v>27.194675569486</v>
+        <v>27.2703715894012</v>
       </c>
       <c r="K18" t="n">
-        <v>26.6707794040896</v>
+        <v>26.8340610334905</v>
       </c>
       <c r="L18" t="n">
-        <v>25.4378126176904</v>
+        <v>25.3946837241904</v>
       </c>
     </row>
     <row r="19">
@@ -1080,28 +1080,28 @@
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9295</v>
+        <v>0.928</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9575</v>
+        <v>0.959</v>
       </c>
       <c r="G19" t="n">
-        <v>4.43670734566566</v>
+        <v>4.43421080311503</v>
       </c>
       <c r="H19" t="n">
-        <v>2.85051464951911</v>
+        <v>2.87026120359033</v>
       </c>
       <c r="I19" t="n">
-        <v>52.1294773280943</v>
+        <v>51.9766366677227</v>
       </c>
       <c r="J19" t="n">
-        <v>29.5907460886816</v>
+        <v>29.0168568252366</v>
       </c>
       <c r="K19" t="n">
-        <v>26.6479913650313</v>
+        <v>26.6484459551768</v>
       </c>
       <c r="L19" t="n">
-        <v>25.2821972122218</v>
+        <v>25.3659777134184</v>
       </c>
     </row>
     <row r="20">
@@ -1118,28 +1118,28 @@
         <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>0.917</v>
+        <v>0.92</v>
       </c>
       <c r="F20" t="n">
         <v>0.9535</v>
       </c>
       <c r="G20" t="n">
-        <v>4.28104703839406</v>
+        <v>4.25393821240418</v>
       </c>
       <c r="H20" t="n">
-        <v>2.87718712084451</v>
+        <v>2.95684750256445</v>
       </c>
       <c r="I20" t="n">
-        <v>51.8576558904351</v>
+        <v>51.6556046818768</v>
       </c>
       <c r="J20" t="n">
-        <v>29.3904622854845</v>
+        <v>29.318933257832</v>
       </c>
       <c r="K20" t="n">
-        <v>26.5675127288778</v>
+        <v>26.6353264456816</v>
       </c>
       <c r="L20" t="n">
-        <v>25.4046658085479</v>
+        <v>25.2522435852981</v>
       </c>
     </row>
     <row r="21">
@@ -1156,28 +1156,28 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9105</v>
+        <v>0.9195</v>
       </c>
       <c r="F21" t="n">
-        <v>0.946</v>
+        <v>0.945</v>
       </c>
       <c r="G21" t="n">
-        <v>4.19090842267699</v>
+        <v>4.31179169978155</v>
       </c>
       <c r="H21" t="n">
-        <v>2.95626871689318</v>
+        <v>2.89185800631875</v>
       </c>
       <c r="I21" t="n">
-        <v>53.6331970577781</v>
+        <v>53.3044754864164</v>
       </c>
       <c r="J21" t="n">
-        <v>30.5833923047805</v>
+        <v>30.5937350009341</v>
       </c>
       <c r="K21" t="n">
-        <v>26.5966082465341</v>
+        <v>26.6724129655002</v>
       </c>
       <c r="L21" t="n">
-        <v>25.1519032385996</v>
+        <v>25.2272731973343</v>
       </c>
     </row>
     <row r="22">
@@ -1194,28 +1194,28 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9185</v>
+        <v>0.9195</v>
       </c>
       <c r="F22" t="n">
-        <v>0.933</v>
+        <v>0.935</v>
       </c>
       <c r="G22" t="n">
-        <v>4.00677613573977</v>
+        <v>4.07672942669137</v>
       </c>
       <c r="H22" t="n">
-        <v>3.27284433916769</v>
+        <v>3.2623375029104</v>
       </c>
       <c r="I22" t="n">
-        <v>39.6869701630238</v>
+        <v>39.8159935461565</v>
       </c>
       <c r="J22" t="n">
-        <v>29.1011816369582</v>
+        <v>28.877252032146</v>
       </c>
       <c r="K22" t="n">
-        <v>26.3327540756092</v>
+        <v>26.4627477464655</v>
       </c>
       <c r="L22" t="n">
-        <v>26.3563559281611</v>
+        <v>26.1893612247283</v>
       </c>
     </row>
     <row r="23">
@@ -1232,28 +1232,28 @@
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9195</v>
+        <v>0.918</v>
       </c>
       <c r="F23" t="n">
         <v>0.934</v>
       </c>
       <c r="G23" t="n">
-        <v>4.31972834383803</v>
+        <v>4.35220382299222</v>
       </c>
       <c r="H23" t="n">
-        <v>3.43967178670801</v>
+        <v>3.49019287497154</v>
       </c>
       <c r="I23" t="n">
-        <v>46.8312387257986</v>
+        <v>47.2487610877129</v>
       </c>
       <c r="J23" t="n">
-        <v>34.8313902359195</v>
+        <v>35.130250510492</v>
       </c>
       <c r="K23" t="n">
-        <v>26.7553690117788</v>
+        <v>26.7769509503478</v>
       </c>
       <c r="L23" t="n">
-        <v>26.8404001519078</v>
+        <v>26.8923269738836</v>
       </c>
     </row>
     <row r="24">
@@ -1270,28 +1270,28 @@
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9205</v>
+        <v>0.9185</v>
       </c>
       <c r="F24" t="n">
-        <v>0.935</v>
+        <v>0.9375</v>
       </c>
       <c r="G24" t="n">
-        <v>4.48937831379135</v>
+        <v>4.33516445771089</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4319277172511</v>
+        <v>3.50495901004542</v>
       </c>
       <c r="I24" t="n">
-        <v>49.2168944143936</v>
+        <v>49.6551707431841</v>
       </c>
       <c r="J24" t="n">
-        <v>35.5949385152576</v>
+        <v>36.0218799133415</v>
       </c>
       <c r="K24" t="n">
-        <v>26.9936686345072</v>
+        <v>27.0133358104238</v>
       </c>
       <c r="L24" t="n">
-        <v>27.0253851579627</v>
+        <v>27.2752561909314</v>
       </c>
     </row>
     <row r="25">
@@ -1308,28 +1308,28 @@
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>0.909</v>
+        <v>0.91</v>
       </c>
       <c r="F25" t="n">
-        <v>0.931</v>
+        <v>0.9305</v>
       </c>
       <c r="G25" t="n">
-        <v>4.43606907010689</v>
+        <v>4.643287150832</v>
       </c>
       <c r="H25" t="n">
-        <v>3.58625446712707</v>
+        <v>3.59302031658963</v>
       </c>
       <c r="I25" t="n">
-        <v>51.7451796043136</v>
+        <v>52.1360478569414</v>
       </c>
       <c r="J25" t="n">
-        <v>37.4984386996517</v>
+        <v>37.5740057653913</v>
       </c>
       <c r="K25" t="n">
-        <v>26.8242956138144</v>
+        <v>26.9622575909162</v>
       </c>
       <c r="L25" t="n">
-        <v>26.9683514923179</v>
+        <v>27.2093903751755</v>
       </c>
     </row>
     <row r="26">
@@ -1346,28 +1346,28 @@
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.896</v>
+        <v>0.9005</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9175</v>
+        <v>0.915</v>
       </c>
       <c r="G26" t="n">
-        <v>4.55712011187118</v>
+        <v>4.59559609490703</v>
       </c>
       <c r="H26" t="n">
-        <v>3.59476401535066</v>
+        <v>3.60892443072861</v>
       </c>
       <c r="I26" t="n">
-        <v>53.4397829484237</v>
+        <v>54.011971778401</v>
       </c>
       <c r="J26" t="n">
-        <v>39.7423557422954</v>
+        <v>40.26985828757</v>
       </c>
       <c r="K26" t="n">
-        <v>27.0426582654778</v>
+        <v>27.1723068472261</v>
       </c>
       <c r="L26" t="n">
-        <v>27.3046634563037</v>
+        <v>27.3687656775914</v>
       </c>
     </row>
     <row r="27">
@@ -1384,28 +1384,28 @@
         <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>0.906</v>
+        <v>0.9075</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9305</v>
+        <v>0.931</v>
       </c>
       <c r="G27" t="n">
-        <v>4.52999142812031</v>
+        <v>4.59407322043929</v>
       </c>
       <c r="H27" t="n">
-        <v>3.50130118615671</v>
+        <v>3.49002417278493</v>
       </c>
       <c r="I27" t="n">
-        <v>51.7529699215513</v>
+        <v>52.1484194758865</v>
       </c>
       <c r="J27" t="n">
-        <v>36.923009819595</v>
+        <v>37.5457977445725</v>
       </c>
       <c r="K27" t="n">
-        <v>27.0456073711533</v>
+        <v>27.0550224537002</v>
       </c>
       <c r="L27" t="n">
-        <v>27.0515677997623</v>
+        <v>27.3397644954097</v>
       </c>
     </row>
     <row r="28">
@@ -1422,28 +1422,28 @@
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>0.897</v>
+        <v>0.8945</v>
       </c>
       <c r="F28" t="n">
-        <v>0.916</v>
+        <v>0.9155</v>
       </c>
       <c r="G28" t="n">
-        <v>4.53281742051102</v>
+        <v>4.54900525600589</v>
       </c>
       <c r="H28" t="n">
-        <v>3.59376090395787</v>
+        <v>3.62956066683979</v>
       </c>
       <c r="I28" t="n">
-        <v>55.3959704982343</v>
+        <v>56.1338805573736</v>
       </c>
       <c r="J28" t="n">
-        <v>42.2242403531345</v>
+        <v>42.5229267980738</v>
       </c>
       <c r="K28" t="n">
-        <v>26.8393521603505</v>
+        <v>26.9594292851949</v>
       </c>
       <c r="L28" t="n">
-        <v>27.2154216543862</v>
+        <v>27.2597774419803</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>0.898</v>
+        <v>0.8995</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9215</v>
+        <v>0.9195</v>
       </c>
       <c r="G29" t="n">
-        <v>4.38920875399603</v>
+        <v>4.39628029318402</v>
       </c>
       <c r="H29" t="n">
-        <v>3.48844137615673</v>
+        <v>3.55814898495129</v>
       </c>
       <c r="I29" t="n">
-        <v>57.1516700119281</v>
+        <v>57.1053071816214</v>
       </c>
       <c r="J29" t="n">
-        <v>41.0149946294153</v>
+        <v>41.2075185114528</v>
       </c>
       <c r="K29" t="n">
-        <v>27.0553891403367</v>
+        <v>27.1017472582288</v>
       </c>
       <c r="L29" t="n">
-        <v>27.106908246156</v>
+        <v>27.2247655668784</v>
       </c>
     </row>
     <row r="30">
@@ -1498,28 +1498,28 @@
         <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8985</v>
+        <v>0.902</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9245</v>
+        <v>0.9225</v>
       </c>
       <c r="G30" t="n">
-        <v>4.50796961696619</v>
+        <v>4.59049168227586</v>
       </c>
       <c r="H30" t="n">
-        <v>3.60452128249521</v>
+        <v>3.61892352939482</v>
       </c>
       <c r="I30" t="n">
-        <v>58.8684374250874</v>
+        <v>59.4802644237199</v>
       </c>
       <c r="J30" t="n">
-        <v>43.6395593724438</v>
+        <v>43.4324762440271</v>
       </c>
       <c r="K30" t="n">
-        <v>27.0303203441708</v>
+        <v>27.2371212805737</v>
       </c>
       <c r="L30" t="n">
-        <v>27.2911211162674</v>
+        <v>27.3363501632153</v>
       </c>
     </row>
     <row r="31">
@@ -1536,28 +1536,28 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9065</v>
+        <v>0.908</v>
       </c>
       <c r="F31" t="n">
-        <v>0.928</v>
+        <v>0.929</v>
       </c>
       <c r="G31" t="n">
-        <v>4.66539788440441</v>
+        <v>4.73297602692715</v>
       </c>
       <c r="H31" t="n">
-        <v>3.65174873069214</v>
+        <v>3.59881877397061</v>
       </c>
       <c r="I31" t="n">
-        <v>57.7824062303376</v>
+        <v>57.723185440261</v>
       </c>
       <c r="J31" t="n">
-        <v>42.1437451740007</v>
+        <v>42.5142124243441</v>
       </c>
       <c r="K31" t="n">
-        <v>27.0684731774675</v>
+        <v>27.1972251305762</v>
       </c>
       <c r="L31" t="n">
-        <v>27.3832957773099</v>
+        <v>27.435571393005</v>
       </c>
     </row>
     <row r="32">
@@ -1574,28 +1574,28 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9505</v>
+        <v>0.9475</v>
       </c>
       <c r="F32" t="n">
-        <v>0.97</v>
+        <v>0.969</v>
       </c>
       <c r="G32" t="n">
-        <v>3.91277336032888</v>
+        <v>3.92841762108118</v>
       </c>
       <c r="H32" t="n">
-        <v>2.76059049445576</v>
+        <v>2.82554671466721</v>
       </c>
       <c r="I32" t="n">
-        <v>37.5360773149028</v>
+        <v>37.7560161533802</v>
       </c>
       <c r="J32" t="n">
-        <v>22.349436449643</v>
+        <v>22.5489958305451</v>
       </c>
       <c r="K32" t="n">
-        <v>25.9549511601385</v>
+        <v>26.0646789455388</v>
       </c>
       <c r="L32" t="n">
-        <v>24.5456388972315</v>
+        <v>24.7396768431849</v>
       </c>
     </row>
     <row r="33">
@@ -1612,28 +1612,28 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>0.932</v>
+        <v>0.9315</v>
       </c>
       <c r="F33" t="n">
-        <v>0.956</v>
+        <v>0.955</v>
       </c>
       <c r="G33" t="n">
-        <v>4.27012282861754</v>
+        <v>4.17780635448323</v>
       </c>
       <c r="H33" t="n">
-        <v>2.88883571517274</v>
+        <v>2.92050182163222</v>
       </c>
       <c r="I33" t="n">
-        <v>43.2234092618734</v>
+        <v>43.2543302596164</v>
       </c>
       <c r="J33" t="n">
-        <v>25.8138939840296</v>
+        <v>26.055575791694</v>
       </c>
       <c r="K33" t="n">
-        <v>26.0439357133788</v>
+        <v>26.3165931905132</v>
       </c>
       <c r="L33" t="n">
-        <v>25.0862991899034</v>
+        <v>25.1047732831957</v>
       </c>
     </row>
     <row r="34">
@@ -1650,28 +1650,28 @@
         <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>0.92</v>
+        <v>0.927</v>
       </c>
       <c r="F34" t="n">
-        <v>0.955</v>
+        <v>0.9545</v>
       </c>
       <c r="G34" t="n">
-        <v>4.22946943546681</v>
+        <v>4.3508105649578</v>
       </c>
       <c r="H34" t="n">
-        <v>3.01365472848008</v>
+        <v>3.06534928680536</v>
       </c>
       <c r="I34" t="n">
-        <v>43.7928755617751</v>
+        <v>43.6848535500952</v>
       </c>
       <c r="J34" t="n">
-        <v>25.9810394104182</v>
+        <v>26.1851818703053</v>
       </c>
       <c r="K34" t="n">
-        <v>26.3820433188009</v>
+        <v>26.475191052693</v>
       </c>
       <c r="L34" t="n">
-        <v>25.1643210709879</v>
+        <v>25.3011185883618</v>
       </c>
     </row>
     <row r="35">
@@ -1688,28 +1688,28 @@
         <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>0.928</v>
+        <v>0.9275</v>
       </c>
       <c r="F35" t="n">
-        <v>0.958</v>
+        <v>0.9565</v>
       </c>
       <c r="G35" t="n">
-        <v>4.11521356181907</v>
+        <v>4.10528640322838</v>
       </c>
       <c r="H35" t="n">
-        <v>2.74721439587399</v>
+        <v>2.78643650594513</v>
       </c>
       <c r="I35" t="n">
-        <v>45.0495638069099</v>
+        <v>45.0385611595684</v>
       </c>
       <c r="J35" t="n">
-        <v>26.6602352847974</v>
+        <v>26.8590939679385</v>
       </c>
       <c r="K35" t="n">
-        <v>26.4466610214027</v>
+        <v>26.6212111476514</v>
       </c>
       <c r="L35" t="n">
-        <v>25.2808117461139</v>
+        <v>25.4347365393283</v>
       </c>
     </row>
     <row r="36">
@@ -1726,28 +1726,28 @@
         <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9265</v>
+        <v>0.927</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9475</v>
+        <v>0.9465</v>
       </c>
       <c r="G36" t="n">
-        <v>4.12137176502135</v>
+        <v>4.21754011411301</v>
       </c>
       <c r="H36" t="n">
-        <v>2.92090738038319</v>
+        <v>2.9739916817915</v>
       </c>
       <c r="I36" t="n">
-        <v>48.7615421669258</v>
+        <v>49.0167515192221</v>
       </c>
       <c r="J36" t="n">
-        <v>29.4433054922735</v>
+        <v>30.0852361112664</v>
       </c>
       <c r="K36" t="n">
-        <v>26.6612818076041</v>
+        <v>26.7523041620251</v>
       </c>
       <c r="L36" t="n">
-        <v>25.5048966257015</v>
+        <v>25.6347787212246</v>
       </c>
     </row>
     <row r="37">
@@ -1767,25 +1767,25 @@
         <v>0.918</v>
       </c>
       <c r="F37" t="n">
-        <v>0.948</v>
+        <v>0.947</v>
       </c>
       <c r="G37" t="n">
-        <v>4.38231607365289</v>
+        <v>4.36895289560797</v>
       </c>
       <c r="H37" t="n">
-        <v>2.98094203899405</v>
+        <v>3.0527912340968</v>
       </c>
       <c r="I37" t="n">
-        <v>47.5099771540814</v>
+        <v>47.632400089222</v>
       </c>
       <c r="J37" t="n">
-        <v>28.9393412383365</v>
+        <v>29.4258421983586</v>
       </c>
       <c r="K37" t="n">
-        <v>26.2997095326009</v>
+        <v>26.3576137085162</v>
       </c>
       <c r="L37" t="n">
-        <v>25.2688091389292</v>
+        <v>25.2620470728267</v>
       </c>
     </row>
     <row r="38">
@@ -1802,28 +1802,28 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>0.929</v>
+        <v>0.928</v>
       </c>
       <c r="F38" t="n">
-        <v>0.954</v>
+        <v>0.956</v>
       </c>
       <c r="G38" t="n">
-        <v>4.33210202930681</v>
+        <v>4.33796900462752</v>
       </c>
       <c r="H38" t="n">
-        <v>2.99017773054427</v>
+        <v>2.97518634005954</v>
       </c>
       <c r="I38" t="n">
-        <v>47.9737698700139</v>
+        <v>48.7796519964776</v>
       </c>
       <c r="J38" t="n">
-        <v>29.079809032406</v>
+        <v>28.8908001106532</v>
       </c>
       <c r="K38" t="n">
-        <v>26.5087736687666</v>
+        <v>26.5239928998785</v>
       </c>
       <c r="L38" t="n">
-        <v>25.4713434786331</v>
+        <v>25.494850180477</v>
       </c>
     </row>
     <row r="39">
@@ -1840,28 +1840,28 @@
         <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9315</v>
+        <v>0.9235</v>
       </c>
       <c r="F39" t="n">
-        <v>0.957</v>
+        <v>0.954</v>
       </c>
       <c r="G39" t="n">
-        <v>4.38753533886978</v>
+        <v>4.4208777324558</v>
       </c>
       <c r="H39" t="n">
-        <v>3.00798804143266</v>
+        <v>2.96296250554581</v>
       </c>
       <c r="I39" t="n">
-        <v>48.5507576558955</v>
+        <v>48.7240731772244</v>
       </c>
       <c r="J39" t="n">
-        <v>28.5255494854364</v>
+        <v>28.723093770745</v>
       </c>
       <c r="K39" t="n">
-        <v>26.4654288286077</v>
+        <v>26.5921890403855</v>
       </c>
       <c r="L39" t="n">
-        <v>25.4440125883167</v>
+        <v>25.4801468874944</v>
       </c>
     </row>
     <row r="40">
@@ -1878,28 +1878,28 @@
         <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9245</v>
+        <v>0.918</v>
       </c>
       <c r="F40" t="n">
-        <v>0.949</v>
+        <v>0.9485</v>
       </c>
       <c r="G40" t="n">
-        <v>4.37847253702472</v>
+        <v>4.3475166098976</v>
       </c>
       <c r="H40" t="n">
-        <v>2.88058260409158</v>
+        <v>2.86329595138295</v>
       </c>
       <c r="I40" t="n">
-        <v>50.0791240814998</v>
+        <v>49.9990196864086</v>
       </c>
       <c r="J40" t="n">
-        <v>29.8061380175608</v>
+        <v>30.0546862422036</v>
       </c>
       <c r="K40" t="n">
-        <v>26.6201825958209</v>
+        <v>26.6649741716813</v>
       </c>
       <c r="L40" t="n">
-        <v>25.6291906670221</v>
+        <v>25.800549887519</v>
       </c>
     </row>
     <row r="41">
@@ -1916,28 +1916,28 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9265</v>
+        <v>0.9215</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9545</v>
+        <v>0.952</v>
       </c>
       <c r="G41" t="n">
-        <v>4.33444911333126</v>
+        <v>4.28844123625127</v>
       </c>
       <c r="H41" t="n">
-        <v>2.96596380430094</v>
+        <v>3.0104961692198</v>
       </c>
       <c r="I41" t="n">
-        <v>46.8014915793051</v>
+        <v>46.4522028589955</v>
       </c>
       <c r="J41" t="n">
-        <v>27.9914455425218</v>
+        <v>28.58420963035</v>
       </c>
       <c r="K41" t="n">
-        <v>26.5210083389261</v>
+        <v>26.6669300193622</v>
       </c>
       <c r="L41" t="n">
-        <v>25.4780069417032</v>
+        <v>25.5144284149167</v>
       </c>
     </row>
   </sheetData>

--- a/table/DGP5_table.xlsx
+++ b/table/DGP5_table.xlsx
@@ -425,37 +425,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9135</v>
+        <v>0.933</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9285</v>
+        <v>0.9585</v>
       </c>
       <c r="G2" t="n">
-        <v>4.18040248729323</v>
+        <v>4.04727353145884</v>
       </c>
       <c r="H2" t="n">
-        <v>3.17819732273542</v>
+        <v>2.85286564274663</v>
       </c>
       <c r="I2" t="n">
-        <v>48.0116564631139</v>
+        <v>42.4961290688728</v>
       </c>
       <c r="J2" t="n">
-        <v>31.9702477973517</v>
+        <v>24.3248720408227</v>
       </c>
       <c r="K2" t="n">
-        <v>26.719834176232</v>
+        <v>26.6370181387633</v>
       </c>
       <c r="L2" t="n">
-        <v>26.2747794295069</v>
+        <v>25.3445532638283</v>
       </c>
     </row>
     <row r="3">
@@ -463,37 +463,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.904</v>
+        <v>0.92</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9285</v>
+        <v>0.948</v>
       </c>
       <c r="G3" t="n">
-        <v>4.43016694863286</v>
+        <v>4.26179697295589</v>
       </c>
       <c r="H3" t="n">
-        <v>3.27933472465525</v>
+        <v>2.93215465661056</v>
       </c>
       <c r="I3" t="n">
-        <v>52.1678294778021</v>
+        <v>47.93419084831</v>
       </c>
       <c r="J3" t="n">
-        <v>34.7611348080356</v>
+        <v>29.2307255970231</v>
       </c>
       <c r="K3" t="n">
-        <v>27.0597810022805</v>
+        <v>26.9898199036147</v>
       </c>
       <c r="L3" t="n">
-        <v>26.7146317765972</v>
+        <v>25.9681967508483</v>
       </c>
     </row>
     <row r="4">
@@ -501,37 +501,37 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9065</v>
+        <v>0.925</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9225</v>
+        <v>0.949</v>
       </c>
       <c r="G4" t="n">
-        <v>4.4805177556033</v>
+        <v>4.42115292237402</v>
       </c>
       <c r="H4" t="n">
-        <v>3.29225840529249</v>
+        <v>2.96918305020983</v>
       </c>
       <c r="I4" t="n">
-        <v>55.0680267192192</v>
+        <v>50.3017357405766</v>
       </c>
       <c r="J4" t="n">
-        <v>36.9335180347533</v>
+        <v>30.2377778088044</v>
       </c>
       <c r="K4" t="n">
-        <v>27.3476311260602</v>
+        <v>27.1191934865292</v>
       </c>
       <c r="L4" t="n">
-        <v>26.7679481235127</v>
+        <v>25.9828849177991</v>
       </c>
     </row>
     <row r="5">
@@ -539,37 +539,37 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.906</v>
+        <v>0.916</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9235</v>
+        <v>0.939</v>
       </c>
       <c r="G5" t="n">
-        <v>4.55599798081732</v>
+        <v>4.56540666323311</v>
       </c>
       <c r="H5" t="n">
-        <v>3.41250410502885</v>
+        <v>3.1352025745456</v>
       </c>
       <c r="I5" t="n">
-        <v>53.7960688516785</v>
+        <v>51.4763045082632</v>
       </c>
       <c r="J5" t="n">
-        <v>36.3987854507694</v>
+        <v>31.3502311242514</v>
       </c>
       <c r="K5" t="n">
-        <v>27.361613325306</v>
+        <v>27.219180342685</v>
       </c>
       <c r="L5" t="n">
-        <v>27.0156438429402</v>
+        <v>26.163093056453</v>
       </c>
     </row>
     <row r="6">
@@ -577,37 +577,37 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.906</v>
+        <v>0.918</v>
       </c>
       <c r="F6" t="n">
-        <v>0.919</v>
+        <v>0.944</v>
       </c>
       <c r="G6" t="n">
-        <v>4.3142332058646</v>
+        <v>4.39953866889378</v>
       </c>
       <c r="H6" t="n">
-        <v>3.37393999727367</v>
+        <v>3.11471870320077</v>
       </c>
       <c r="I6" t="n">
-        <v>55.8574872414084</v>
+        <v>50.8939807468898</v>
       </c>
       <c r="J6" t="n">
-        <v>38.2935653978395</v>
+        <v>30.7442274699396</v>
       </c>
       <c r="K6" t="n">
-        <v>27.5582852576208</v>
+        <v>27.2269642871408</v>
       </c>
       <c r="L6" t="n">
-        <v>27.1594363873939</v>
+        <v>26.212021364207</v>
       </c>
     </row>
     <row r="7">
@@ -615,37 +615,37 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8965</v>
+        <v>0.911</v>
       </c>
       <c r="F7" t="n">
-        <v>0.916</v>
+        <v>0.9425</v>
       </c>
       <c r="G7" t="n">
-        <v>4.76112338463227</v>
+        <v>4.41231400339964</v>
       </c>
       <c r="H7" t="n">
-        <v>3.52114964168355</v>
+        <v>3.18892814245138</v>
       </c>
       <c r="I7" t="n">
-        <v>57.6065202347101</v>
+        <v>50.8393869653495</v>
       </c>
       <c r="J7" t="n">
-        <v>39.2647682945716</v>
+        <v>30.9959660819965</v>
       </c>
       <c r="K7" t="n">
-        <v>27.3963285436855</v>
+        <v>26.9316745644389</v>
       </c>
       <c r="L7" t="n">
-        <v>27.0102687982163</v>
+        <v>26.2007426276692</v>
       </c>
     </row>
     <row r="8">
@@ -653,37 +653,37 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8995</v>
+        <v>0.903</v>
       </c>
       <c r="F8" t="n">
-        <v>0.919</v>
+        <v>0.932</v>
       </c>
       <c r="G8" t="n">
-        <v>4.48119551155733</v>
+        <v>4.6664424957232</v>
       </c>
       <c r="H8" t="n">
-        <v>3.37695424274748</v>
+        <v>3.22125852708776</v>
       </c>
       <c r="I8" t="n">
-        <v>56.574949582039</v>
+        <v>54.1798496081741</v>
       </c>
       <c r="J8" t="n">
-        <v>39.2226135608547</v>
+        <v>33.5248093353972</v>
       </c>
       <c r="K8" t="n">
-        <v>27.5141087630111</v>
+        <v>27.1869594974936</v>
       </c>
       <c r="L8" t="n">
-        <v>27.2037451451016</v>
+        <v>26.2608283119178</v>
       </c>
     </row>
     <row r="9">
@@ -691,37 +691,37 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.891</v>
+        <v>0.906</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9205</v>
+        <v>0.9405</v>
       </c>
       <c r="G9" t="n">
-        <v>4.62138174209677</v>
+        <v>4.49128326972587</v>
       </c>
       <c r="H9" t="n">
-        <v>3.53152817059388</v>
+        <v>3.15935075170898</v>
       </c>
       <c r="I9" t="n">
-        <v>60.9608233965534</v>
+        <v>55.8130188266778</v>
       </c>
       <c r="J9" t="n">
-        <v>42.5076346977086</v>
+        <v>34.0370615753966</v>
       </c>
       <c r="K9" t="n">
-        <v>27.2420306398878</v>
+        <v>27.1268489884106</v>
       </c>
       <c r="L9" t="n">
-        <v>27.0079607031341</v>
+        <v>26.3320799369998</v>
       </c>
     </row>
     <row r="10">
@@ -729,37 +729,37 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9</v>
+        <v>0.916</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9195</v>
+        <v>0.94</v>
       </c>
       <c r="G10" t="n">
-        <v>4.4015655566488</v>
+        <v>4.61628581199986</v>
       </c>
       <c r="H10" t="n">
-        <v>3.33384473100476</v>
+        <v>3.11428581058175</v>
       </c>
       <c r="I10" t="n">
-        <v>59.1823846171696</v>
+        <v>53.6860775847061</v>
       </c>
       <c r="J10" t="n">
-        <v>41.1996076187998</v>
+        <v>32.7506614789002</v>
       </c>
       <c r="K10" t="n">
-        <v>27.5503450245525</v>
+        <v>27.0739988339615</v>
       </c>
       <c r="L10" t="n">
-        <v>27.1825189985822</v>
+        <v>26.2838477915153</v>
       </c>
     </row>
     <row r="11">
@@ -767,37 +767,37 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0.896</v>
+        <v>0.9125</v>
       </c>
       <c r="F11" t="n">
-        <v>0.919</v>
+        <v>0.9425</v>
       </c>
       <c r="G11" t="n">
-        <v>4.60468934106563</v>
+        <v>4.47693903738045</v>
       </c>
       <c r="H11" t="n">
-        <v>3.36396908494763</v>
+        <v>3.25744168359604</v>
       </c>
       <c r="I11" t="n">
-        <v>60.4749885628733</v>
+        <v>54.3046515237232</v>
       </c>
       <c r="J11" t="n">
-        <v>41.8913625354602</v>
+        <v>33.4355715377005</v>
       </c>
       <c r="K11" t="n">
-        <v>27.7985646799604</v>
+        <v>27.1284723691033</v>
       </c>
       <c r="L11" t="n">
-        <v>27.4887210467432</v>
+        <v>26.2300664575501</v>
       </c>
     </row>
     <row r="12">
@@ -805,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
         <v>70</v>
@@ -814,28 +814,28 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9445</v>
+        <v>0.934</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9685</v>
+        <v>0.9575</v>
       </c>
       <c r="G12" t="n">
-        <v>4.12546064132067</v>
+        <v>4.02600387988397</v>
       </c>
       <c r="H12" t="n">
-        <v>2.72951739862955</v>
+        <v>2.74949821936941</v>
       </c>
       <c r="I12" t="n">
-        <v>40.1934249288406</v>
+        <v>41.53230078823</v>
       </c>
       <c r="J12" t="n">
-        <v>21.4811242915016</v>
+        <v>21.5774706396114</v>
       </c>
       <c r="K12" t="n">
-        <v>26.2592868407089</v>
+        <v>26.1739159012708</v>
       </c>
       <c r="L12" t="n">
-        <v>24.5625867506697</v>
+        <v>24.2967011125526</v>
       </c>
     </row>
     <row r="13">
@@ -843,7 +843,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>70</v>
@@ -852,28 +852,28 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0.925</v>
+        <v>0.928</v>
       </c>
       <c r="F13" t="n">
-        <v>0.949</v>
+        <v>0.953</v>
       </c>
       <c r="G13" t="n">
-        <v>4.13600380972492</v>
+        <v>4.20841289602168</v>
       </c>
       <c r="H13" t="n">
-        <v>2.76322469316615</v>
+        <v>2.74185417740943</v>
       </c>
       <c r="I13" t="n">
-        <v>42.7241346641941</v>
+        <v>44.7776574670703</v>
       </c>
       <c r="J13" t="n">
-        <v>24.0113314900955</v>
+        <v>24.0510335155246</v>
       </c>
       <c r="K13" t="n">
-        <v>26.2370851176644</v>
+        <v>26.3533173066282</v>
       </c>
       <c r="L13" t="n">
-        <v>24.5137688877503</v>
+        <v>24.5734439454204</v>
       </c>
     </row>
     <row r="14">
@@ -881,7 +881,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
         <v>70</v>
@@ -890,28 +890,28 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9255</v>
+        <v>0.928</v>
       </c>
       <c r="F14" t="n">
-        <v>0.958</v>
+        <v>0.957</v>
       </c>
       <c r="G14" t="n">
-        <v>4.35886282734968</v>
+        <v>4.25014993311503</v>
       </c>
       <c r="H14" t="n">
-        <v>2.91725773813448</v>
+        <v>2.7478970743388</v>
       </c>
       <c r="I14" t="n">
-        <v>45.213049951541</v>
+        <v>47.5279487088493</v>
       </c>
       <c r="J14" t="n">
-        <v>24.8734286693922</v>
+        <v>24.9791227170662</v>
       </c>
       <c r="K14" t="n">
-        <v>26.3109360450263</v>
+        <v>26.6663855326618</v>
       </c>
       <c r="L14" t="n">
-        <v>24.8108278000036</v>
+        <v>24.8730671390533</v>
       </c>
     </row>
     <row r="15">
@@ -919,7 +919,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
         <v>70</v>
@@ -928,28 +928,28 @@
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.925</v>
+        <v>0.9255</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9505</v>
+        <v>0.9595</v>
       </c>
       <c r="G15" t="n">
-        <v>4.39095507702972</v>
+        <v>4.43326067762512</v>
       </c>
       <c r="H15" t="n">
-        <v>3.00328129152727</v>
+        <v>2.88699325659724</v>
       </c>
       <c r="I15" t="n">
-        <v>48.1909522287023</v>
+        <v>52.0603237112248</v>
       </c>
       <c r="J15" t="n">
-        <v>27.0313824359019</v>
+        <v>26.7770564556493</v>
       </c>
       <c r="K15" t="n">
-        <v>26.3074421994105</v>
+        <v>26.6143842660412</v>
       </c>
       <c r="L15" t="n">
-        <v>24.8370955190862</v>
+        <v>24.7725831654711</v>
       </c>
     </row>
     <row r="16">
@@ -957,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
         <v>70</v>
@@ -966,28 +966,28 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.929</v>
+        <v>0.9215</v>
       </c>
       <c r="F16" t="n">
         <v>0.9525</v>
       </c>
       <c r="G16" t="n">
-        <v>3.9998798442455</v>
+        <v>4.27573245645225</v>
       </c>
       <c r="H16" t="n">
-        <v>2.79795238200716</v>
+        <v>2.75056780037098</v>
       </c>
       <c r="I16" t="n">
-        <v>44.6907721358024</v>
+        <v>50.8539500081884</v>
       </c>
       <c r="J16" t="n">
-        <v>24.9779161476468</v>
+        <v>27.0467182940565</v>
       </c>
       <c r="K16" t="n">
-        <v>26.509769133852</v>
+        <v>26.5396623731853</v>
       </c>
       <c r="L16" t="n">
-        <v>24.9186588824365</v>
+        <v>24.8652181128799</v>
       </c>
     </row>
     <row r="17">
@@ -995,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
         <v>70</v>
@@ -1004,28 +1004,28 @@
         <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9275</v>
+        <v>0.9235</v>
       </c>
       <c r="F17" t="n">
-        <v>0.954</v>
+        <v>0.9585</v>
       </c>
       <c r="G17" t="n">
-        <v>4.2111621546575</v>
+        <v>4.35905333297255</v>
       </c>
       <c r="H17" t="n">
-        <v>2.82951275594661</v>
+        <v>2.78941101753113</v>
       </c>
       <c r="I17" t="n">
-        <v>47.5337188875682</v>
+        <v>47.9215631734034</v>
       </c>
       <c r="J17" t="n">
-        <v>26.3546191195345</v>
+        <v>25.641081152216</v>
       </c>
       <c r="K17" t="n">
-        <v>26.7195261712145</v>
+        <v>26.4123507593762</v>
       </c>
       <c r="L17" t="n">
-        <v>25.0755049713369</v>
+        <v>24.7255089298311</v>
       </c>
     </row>
     <row r="18">
@@ -1033,7 +1033,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
         <v>70</v>
@@ -1042,28 +1042,28 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>0.93</v>
+        <v>0.9265</v>
       </c>
       <c r="F18" t="n">
-        <v>0.96</v>
+        <v>0.9585</v>
       </c>
       <c r="G18" t="n">
-        <v>4.37603513491793</v>
+        <v>4.21565785347961</v>
       </c>
       <c r="H18" t="n">
-        <v>2.92257577680309</v>
+        <v>2.79499356551179</v>
       </c>
       <c r="I18" t="n">
-        <v>49.8270444840151</v>
+        <v>48.044655173716</v>
       </c>
       <c r="J18" t="n">
-        <v>27.2703715894012</v>
+        <v>25.4876295845174</v>
       </c>
       <c r="K18" t="n">
-        <v>26.8340610334905</v>
+        <v>26.6539448442053</v>
       </c>
       <c r="L18" t="n">
-        <v>25.3946837241904</v>
+        <v>24.8148907315241</v>
       </c>
     </row>
     <row r="19">
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
         <v>70</v>
@@ -1080,28 +1080,28 @@
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>0.928</v>
+        <v>0.9245</v>
       </c>
       <c r="F19" t="n">
-        <v>0.959</v>
+        <v>0.958</v>
       </c>
       <c r="G19" t="n">
-        <v>4.43421080311503</v>
+        <v>4.14777282628115</v>
       </c>
       <c r="H19" t="n">
-        <v>2.87026120359033</v>
+        <v>2.65716010230556</v>
       </c>
       <c r="I19" t="n">
-        <v>51.9766366677227</v>
+        <v>48.3465992886161</v>
       </c>
       <c r="J19" t="n">
-        <v>29.0168568252366</v>
+        <v>25.8252032952096</v>
       </c>
       <c r="K19" t="n">
-        <v>26.6484459551768</v>
+        <v>26.6446427777188</v>
       </c>
       <c r="L19" t="n">
-        <v>25.3659777134184</v>
+        <v>24.7902538003729</v>
       </c>
     </row>
     <row r="20">
@@ -1109,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
         <v>70</v>
@@ -1118,28 +1118,28 @@
         <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>0.92</v>
+        <v>0.922</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9535</v>
+        <v>0.954</v>
       </c>
       <c r="G20" t="n">
-        <v>4.25393821240418</v>
+        <v>4.18512056067957</v>
       </c>
       <c r="H20" t="n">
-        <v>2.95684750256445</v>
+        <v>2.75598163851661</v>
       </c>
       <c r="I20" t="n">
-        <v>51.6556046818768</v>
+        <v>48.1571007414058</v>
       </c>
       <c r="J20" t="n">
-        <v>29.318933257832</v>
+        <v>26.4794016352742</v>
       </c>
       <c r="K20" t="n">
-        <v>26.6353264456816</v>
+        <v>26.7574260157556</v>
       </c>
       <c r="L20" t="n">
-        <v>25.2522435852981</v>
+        <v>25.029357373235</v>
       </c>
     </row>
     <row r="21">
@@ -1147,7 +1147,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
         <v>70</v>
@@ -1156,28 +1156,28 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9195</v>
+        <v>0.9265</v>
       </c>
       <c r="F21" t="n">
-        <v>0.945</v>
+        <v>0.956</v>
       </c>
       <c r="G21" t="n">
-        <v>4.31179169978155</v>
+        <v>4.30301617432984</v>
       </c>
       <c r="H21" t="n">
-        <v>2.89185800631875</v>
+        <v>2.74436360166867</v>
       </c>
       <c r="I21" t="n">
-        <v>53.3044754864164</v>
+        <v>47.4624206582996</v>
       </c>
       <c r="J21" t="n">
-        <v>30.5937350009341</v>
+        <v>25.0307877298627</v>
       </c>
       <c r="K21" t="n">
-        <v>26.6724129655002</v>
+        <v>26.6697676508417</v>
       </c>
       <c r="L21" t="n">
-        <v>25.2272731973343</v>
+        <v>24.920994656703</v>
       </c>
     </row>
     <row r="22">
@@ -1185,37 +1185,37 @@
         <v>12</v>
       </c>
       <c r="B22" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9195</v>
+        <v>0.9245</v>
       </c>
       <c r="F22" t="n">
-        <v>0.935</v>
+        <v>0.945</v>
       </c>
       <c r="G22" t="n">
-        <v>4.07672942669137</v>
+        <v>3.92045549298511</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2623375029104</v>
+        <v>2.9435715505471</v>
       </c>
       <c r="I22" t="n">
-        <v>39.8159935461565</v>
+        <v>42.6345705751349</v>
       </c>
       <c r="J22" t="n">
-        <v>28.877252032146</v>
+        <v>26.5028997936358</v>
       </c>
       <c r="K22" t="n">
-        <v>26.4627477464655</v>
+        <v>27.2514670692294</v>
       </c>
       <c r="L22" t="n">
-        <v>26.1893612247283</v>
+        <v>26.0691660241719</v>
       </c>
     </row>
     <row r="23">
@@ -1223,37 +1223,37 @@
         <v>12</v>
       </c>
       <c r="B23" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>0.918</v>
+        <v>0.9215</v>
       </c>
       <c r="F23" t="n">
-        <v>0.934</v>
+        <v>0.9485</v>
       </c>
       <c r="G23" t="n">
-        <v>4.35220382299222</v>
+        <v>4.29995671415761</v>
       </c>
       <c r="H23" t="n">
-        <v>3.49019287497154</v>
+        <v>3.16115440618586</v>
       </c>
       <c r="I23" t="n">
-        <v>47.2487610877129</v>
+        <v>48.9274039358976</v>
       </c>
       <c r="J23" t="n">
-        <v>35.130250510492</v>
+        <v>29.3729843498448</v>
       </c>
       <c r="K23" t="n">
-        <v>26.7769509503478</v>
+        <v>27.5700235876779</v>
       </c>
       <c r="L23" t="n">
-        <v>26.8923269738836</v>
+        <v>26.6016020267401</v>
       </c>
     </row>
     <row r="24">
@@ -1261,10 +1261,10 @@
         <v>12</v>
       </c>
       <c r="B24" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
@@ -1273,25 +1273,25 @@
         <v>0.9185</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9375</v>
+        <v>0.948</v>
       </c>
       <c r="G24" t="n">
-        <v>4.33516445771089</v>
+        <v>4.27999341422435</v>
       </c>
       <c r="H24" t="n">
-        <v>3.50495901004542</v>
+        <v>3.15929864871729</v>
       </c>
       <c r="I24" t="n">
-        <v>49.6551707431841</v>
+        <v>48.4083261413931</v>
       </c>
       <c r="J24" t="n">
-        <v>36.0218799133415</v>
+        <v>30.7771767635577</v>
       </c>
       <c r="K24" t="n">
-        <v>27.0133358104238</v>
+        <v>27.4291773669099</v>
       </c>
       <c r="L24" t="n">
-        <v>27.2752561909314</v>
+        <v>26.5498595721475</v>
       </c>
     </row>
     <row r="25">
@@ -1299,37 +1299,37 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9305</v>
+        <v>0.9445</v>
       </c>
       <c r="G25" t="n">
-        <v>4.643287150832</v>
+        <v>4.27598558917154</v>
       </c>
       <c r="H25" t="n">
-        <v>3.59302031658963</v>
+        <v>3.21082443051084</v>
       </c>
       <c r="I25" t="n">
-        <v>52.1360478569414</v>
+        <v>50.8570553034629</v>
       </c>
       <c r="J25" t="n">
-        <v>37.5740057653913</v>
+        <v>31.9106911130975</v>
       </c>
       <c r="K25" t="n">
-        <v>26.9622575909162</v>
+        <v>27.4990052590857</v>
       </c>
       <c r="L25" t="n">
-        <v>27.2093903751755</v>
+        <v>26.7859169468051</v>
       </c>
     </row>
     <row r="26">
@@ -1337,37 +1337,37 @@
         <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9005</v>
+        <v>0.9165</v>
       </c>
       <c r="F26" t="n">
-        <v>0.915</v>
+        <v>0.944</v>
       </c>
       <c r="G26" t="n">
-        <v>4.59559609490703</v>
+        <v>4.40856076985353</v>
       </c>
       <c r="H26" t="n">
-        <v>3.60892443072861</v>
+        <v>3.32310470050511</v>
       </c>
       <c r="I26" t="n">
-        <v>54.011971778401</v>
+        <v>53.0614219420491</v>
       </c>
       <c r="J26" t="n">
-        <v>40.26985828757</v>
+        <v>33.1236223380529</v>
       </c>
       <c r="K26" t="n">
-        <v>27.1723068472261</v>
+        <v>27.5741697259911</v>
       </c>
       <c r="L26" t="n">
-        <v>27.3687656775914</v>
+        <v>26.7285056406821</v>
       </c>
     </row>
     <row r="27">
@@ -1375,37 +1375,37 @@
         <v>12</v>
       </c>
       <c r="B27" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9075</v>
+        <v>0.913</v>
       </c>
       <c r="F27" t="n">
-        <v>0.931</v>
+        <v>0.938</v>
       </c>
       <c r="G27" t="n">
-        <v>4.59407322043929</v>
+        <v>4.40530699737842</v>
       </c>
       <c r="H27" t="n">
-        <v>3.49002417278493</v>
+        <v>3.29204053401073</v>
       </c>
       <c r="I27" t="n">
-        <v>52.1484194758865</v>
+        <v>57.0813953336192</v>
       </c>
       <c r="J27" t="n">
-        <v>37.5457977445725</v>
+        <v>35.2309709211401</v>
       </c>
       <c r="K27" t="n">
-        <v>27.0550224537002</v>
+        <v>27.3620717878861</v>
       </c>
       <c r="L27" t="n">
-        <v>27.3397644954097</v>
+        <v>26.9469467113038</v>
       </c>
     </row>
     <row r="28">
@@ -1413,37 +1413,37 @@
         <v>12</v>
       </c>
       <c r="B28" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8945</v>
+        <v>0.917</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9155</v>
+        <v>0.9415</v>
       </c>
       <c r="G28" t="n">
-        <v>4.54900525600589</v>
+        <v>4.52107359059904</v>
       </c>
       <c r="H28" t="n">
-        <v>3.62956066683979</v>
+        <v>3.26750215097895</v>
       </c>
       <c r="I28" t="n">
-        <v>56.1338805573736</v>
+        <v>54.0959144888677</v>
       </c>
       <c r="J28" t="n">
-        <v>42.5229267980738</v>
+        <v>33.3825734159608</v>
       </c>
       <c r="K28" t="n">
-        <v>26.9594292851949</v>
+        <v>27.4535065989726</v>
       </c>
       <c r="L28" t="n">
-        <v>27.2597774419803</v>
+        <v>26.8444360531309</v>
       </c>
     </row>
     <row r="29">
@@ -1451,37 +1451,37 @@
         <v>12</v>
       </c>
       <c r="B29" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8995</v>
+        <v>0.92</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9195</v>
+        <v>0.942</v>
       </c>
       <c r="G29" t="n">
-        <v>4.39628029318402</v>
+        <v>4.45828521133598</v>
       </c>
       <c r="H29" t="n">
-        <v>3.55814898495129</v>
+        <v>3.24526580668398</v>
       </c>
       <c r="I29" t="n">
-        <v>57.1053071816214</v>
+        <v>54.0005180996018</v>
       </c>
       <c r="J29" t="n">
-        <v>41.2075185114528</v>
+        <v>34.6991051749567</v>
       </c>
       <c r="K29" t="n">
-        <v>27.1017472582288</v>
+        <v>27.4773517795473</v>
       </c>
       <c r="L29" t="n">
-        <v>27.2247655668784</v>
+        <v>26.6988999764628</v>
       </c>
     </row>
     <row r="30">
@@ -1489,37 +1489,37 @@
         <v>12</v>
       </c>
       <c r="B30" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>0.902</v>
+        <v>0.926</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9225</v>
+        <v>0.9485</v>
       </c>
       <c r="G30" t="n">
-        <v>4.59049168227586</v>
+        <v>4.46430512686988</v>
       </c>
       <c r="H30" t="n">
-        <v>3.61892352939482</v>
+        <v>3.19045469970643</v>
       </c>
       <c r="I30" t="n">
-        <v>59.4802644237199</v>
+        <v>56.8853552022997</v>
       </c>
       <c r="J30" t="n">
-        <v>43.4324762440271</v>
+        <v>36.1903793901501</v>
       </c>
       <c r="K30" t="n">
-        <v>27.2371212805737</v>
+        <v>27.6839448338709</v>
       </c>
       <c r="L30" t="n">
-        <v>27.3363501632153</v>
+        <v>26.9794946312895</v>
       </c>
     </row>
     <row r="31">
@@ -1527,37 +1527,37 @@
         <v>12</v>
       </c>
       <c r="B31" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>0.908</v>
+        <v>0.915</v>
       </c>
       <c r="F31" t="n">
-        <v>0.929</v>
+        <v>0.939</v>
       </c>
       <c r="G31" t="n">
-        <v>4.73297602692715</v>
+        <v>4.34748400126074</v>
       </c>
       <c r="H31" t="n">
-        <v>3.59881877397061</v>
+        <v>3.20150787317817</v>
       </c>
       <c r="I31" t="n">
-        <v>57.723185440261</v>
+        <v>55.424516907943</v>
       </c>
       <c r="J31" t="n">
-        <v>42.5142124243441</v>
+        <v>36.4626198776453</v>
       </c>
       <c r="K31" t="n">
-        <v>27.1972251305762</v>
+        <v>27.6080370483657</v>
       </c>
       <c r="L31" t="n">
-        <v>27.435571393005</v>
+        <v>26.9008755982457</v>
       </c>
     </row>
     <row r="32">
@@ -1565,7 +1565,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C32" t="n">
         <v>70</v>
@@ -1574,28 +1574,28 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9475</v>
+        <v>0.941</v>
       </c>
       <c r="F32" t="n">
-        <v>0.969</v>
+        <v>0.967</v>
       </c>
       <c r="G32" t="n">
-        <v>3.92841762108118</v>
+        <v>4.08290231843482</v>
       </c>
       <c r="H32" t="n">
-        <v>2.82554671466721</v>
+        <v>2.77419751602941</v>
       </c>
       <c r="I32" t="n">
-        <v>37.7560161533802</v>
+        <v>38.6593267248097</v>
       </c>
       <c r="J32" t="n">
-        <v>22.5489958305451</v>
+        <v>21.3251680295826</v>
       </c>
       <c r="K32" t="n">
-        <v>26.0646789455388</v>
+        <v>25.8960727639521</v>
       </c>
       <c r="L32" t="n">
-        <v>24.7396768431849</v>
+        <v>24.4123936866972</v>
       </c>
     </row>
     <row r="33">
@@ -1603,7 +1603,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C33" t="n">
         <v>70</v>
@@ -1612,28 +1612,28 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9315</v>
+        <v>0.935</v>
       </c>
       <c r="F33" t="n">
-        <v>0.955</v>
+        <v>0.965</v>
       </c>
       <c r="G33" t="n">
-        <v>4.17780635448323</v>
+        <v>4.25431390666186</v>
       </c>
       <c r="H33" t="n">
-        <v>2.92050182163222</v>
+        <v>2.84590729058583</v>
       </c>
       <c r="I33" t="n">
-        <v>43.2543302596164</v>
+        <v>41.4876068630669</v>
       </c>
       <c r="J33" t="n">
-        <v>26.055575791694</v>
+        <v>23.1262074070184</v>
       </c>
       <c r="K33" t="n">
-        <v>26.3165931905132</v>
+        <v>26.0063219832955</v>
       </c>
       <c r="L33" t="n">
-        <v>25.1047732831957</v>
+        <v>24.5952421202919</v>
       </c>
     </row>
     <row r="34">
@@ -1641,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C34" t="n">
         <v>70</v>
@@ -1650,28 +1650,28 @@
         <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>0.927</v>
+        <v>0.932</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9545</v>
+        <v>0.9625</v>
       </c>
       <c r="G34" t="n">
-        <v>4.3508105649578</v>
+        <v>4.32329695314483</v>
       </c>
       <c r="H34" t="n">
-        <v>3.06534928680536</v>
+        <v>2.89430920818628</v>
       </c>
       <c r="I34" t="n">
-        <v>43.6848535500952</v>
+        <v>43.2422010856528</v>
       </c>
       <c r="J34" t="n">
-        <v>26.1851818703053</v>
+        <v>24.8112620690559</v>
       </c>
       <c r="K34" t="n">
-        <v>26.475191052693</v>
+        <v>26.2256135442705</v>
       </c>
       <c r="L34" t="n">
-        <v>25.3011185883618</v>
+        <v>24.9581019231946</v>
       </c>
     </row>
     <row r="35">
@@ -1679,7 +1679,7 @@
         <v>12</v>
       </c>
       <c r="B35" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C35" t="n">
         <v>70</v>
@@ -1688,28 +1688,28 @@
         <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9275</v>
+        <v>0.9295</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9565</v>
+        <v>0.9515</v>
       </c>
       <c r="G35" t="n">
-        <v>4.10528640322838</v>
+        <v>4.25357491234412</v>
       </c>
       <c r="H35" t="n">
-        <v>2.78643650594513</v>
+        <v>2.93705897808936</v>
       </c>
       <c r="I35" t="n">
-        <v>45.0385611595684</v>
+        <v>44.2819993670449</v>
       </c>
       <c r="J35" t="n">
-        <v>26.8590939679385</v>
+        <v>26.7514329943436</v>
       </c>
       <c r="K35" t="n">
-        <v>26.6212111476514</v>
+        <v>26.2956397227677</v>
       </c>
       <c r="L35" t="n">
-        <v>25.4347365393283</v>
+        <v>24.9651500047902</v>
       </c>
     </row>
     <row r="36">
@@ -1717,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C36" t="n">
         <v>70</v>
@@ -1726,28 +1726,28 @@
         <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.927</v>
+        <v>0.923</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9465</v>
+        <v>0.9575</v>
       </c>
       <c r="G36" t="n">
-        <v>4.21754011411301</v>
+        <v>4.31588778099164</v>
       </c>
       <c r="H36" t="n">
-        <v>2.9739916817915</v>
+        <v>2.9454819851623</v>
       </c>
       <c r="I36" t="n">
-        <v>49.0167515192221</v>
+        <v>46.5757917359023</v>
       </c>
       <c r="J36" t="n">
-        <v>30.0852361112664</v>
+        <v>26.7216086493561</v>
       </c>
       <c r="K36" t="n">
-        <v>26.7523041620251</v>
+        <v>26.4375114609131</v>
       </c>
       <c r="L36" t="n">
-        <v>25.6347787212246</v>
+        <v>24.9382061768377</v>
       </c>
     </row>
     <row r="37">
@@ -1755,7 +1755,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C37" t="n">
         <v>70</v>
@@ -1764,28 +1764,28 @@
         <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>0.918</v>
+        <v>0.931</v>
       </c>
       <c r="F37" t="n">
-        <v>0.947</v>
+        <v>0.9615</v>
       </c>
       <c r="G37" t="n">
-        <v>4.36895289560797</v>
+        <v>4.26320435152393</v>
       </c>
       <c r="H37" t="n">
-        <v>3.0527912340968</v>
+        <v>2.74272783670835</v>
       </c>
       <c r="I37" t="n">
-        <v>47.632400089222</v>
+        <v>46.4717689138526</v>
       </c>
       <c r="J37" t="n">
-        <v>29.4258421983586</v>
+        <v>25.4993634329987</v>
       </c>
       <c r="K37" t="n">
-        <v>26.3576137085162</v>
+        <v>26.652676379913</v>
       </c>
       <c r="L37" t="n">
-        <v>25.2620470728267</v>
+        <v>25.0592365156292</v>
       </c>
     </row>
     <row r="38">
@@ -1793,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C38" t="n">
         <v>70</v>
@@ -1802,28 +1802,28 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>0.928</v>
+        <v>0.924</v>
       </c>
       <c r="F38" t="n">
-        <v>0.956</v>
+        <v>0.9555</v>
       </c>
       <c r="G38" t="n">
-        <v>4.33796900462752</v>
+        <v>4.35948554904297</v>
       </c>
       <c r="H38" t="n">
-        <v>2.97518634005954</v>
+        <v>2.99771309306015</v>
       </c>
       <c r="I38" t="n">
-        <v>48.7796519964776</v>
+        <v>47.4690944782163</v>
       </c>
       <c r="J38" t="n">
-        <v>28.8908001106532</v>
+        <v>26.6780670482126</v>
       </c>
       <c r="K38" t="n">
-        <v>26.5239928998785</v>
+        <v>26.2424901598812</v>
       </c>
       <c r="L38" t="n">
-        <v>25.494850180477</v>
+        <v>25.008771699126</v>
       </c>
     </row>
     <row r="39">
@@ -1831,7 +1831,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C39" t="n">
         <v>70</v>
@@ -1840,28 +1840,28 @@
         <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9235</v>
+        <v>0.921</v>
       </c>
       <c r="F39" t="n">
-        <v>0.954</v>
+        <v>0.9495</v>
       </c>
       <c r="G39" t="n">
-        <v>4.4208777324558</v>
+        <v>4.27717501012605</v>
       </c>
       <c r="H39" t="n">
-        <v>2.96296250554581</v>
+        <v>2.96901401688739</v>
       </c>
       <c r="I39" t="n">
-        <v>48.7240731772244</v>
+        <v>47.6635272814898</v>
       </c>
       <c r="J39" t="n">
-        <v>28.723093770745</v>
+        <v>27.0541006681909</v>
       </c>
       <c r="K39" t="n">
-        <v>26.5921890403855</v>
+        <v>26.5336488043487</v>
       </c>
       <c r="L39" t="n">
-        <v>25.4801468874944</v>
+        <v>24.9010478646996</v>
       </c>
     </row>
     <row r="40">
@@ -1869,7 +1869,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C40" t="n">
         <v>70</v>
@@ -1878,28 +1878,28 @@
         <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>0.918</v>
+        <v>0.933</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9485</v>
+        <v>0.9585</v>
       </c>
       <c r="G40" t="n">
-        <v>4.3475166098976</v>
+        <v>4.39869017064219</v>
       </c>
       <c r="H40" t="n">
-        <v>2.86329595138295</v>
+        <v>2.88095137354365</v>
       </c>
       <c r="I40" t="n">
-        <v>49.9990196864086</v>
+        <v>46.7769096344658</v>
       </c>
       <c r="J40" t="n">
-        <v>30.0546862422036</v>
+        <v>26.6899673397122</v>
       </c>
       <c r="K40" t="n">
-        <v>26.6649741716813</v>
+        <v>26.7364847581526</v>
       </c>
       <c r="L40" t="n">
-        <v>25.800549887519</v>
+        <v>25.3535776430519</v>
       </c>
     </row>
     <row r="41">
@@ -1907,7 +1907,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C41" t="n">
         <v>70</v>
@@ -1916,28 +1916,28 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9215</v>
+        <v>0.9275</v>
       </c>
       <c r="F41" t="n">
-        <v>0.952</v>
+        <v>0.9555</v>
       </c>
       <c r="G41" t="n">
-        <v>4.28844123625127</v>
+        <v>4.27171265411365</v>
       </c>
       <c r="H41" t="n">
-        <v>3.0104961692198</v>
+        <v>2.87509982681483</v>
       </c>
       <c r="I41" t="n">
-        <v>46.4522028589955</v>
+        <v>49.026025085643</v>
       </c>
       <c r="J41" t="n">
-        <v>28.58420963035</v>
+        <v>27.7800587699012</v>
       </c>
       <c r="K41" t="n">
-        <v>26.6669300193622</v>
+        <v>26.6678711700469</v>
       </c>
       <c r="L41" t="n">
-        <v>25.5144284149167</v>
+        <v>25.2031087037884</v>
       </c>
     </row>
   </sheetData>
